--- a/Documents/4. 요구분석/3. 변수명명/변수명명서_샘플.xlsx
+++ b/Documents/4. 요구분석/3. 변수명명/변수명명서_샘플.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\4. 요구분석\3. 변수명명\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\4. 요구분석\3. 변수명명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71472235-818C-4D58-938A-B881F816A6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D136B02-D076-4DBE-811C-4A5EB25F2B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1035" windowWidth="23160" windowHeight="15405" xr2:uid="{AB4D9E23-A312-4F95-8827-CE873524A655}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AB4D9E23-A312-4F95-8827-CE873524A655}"/>
   </bookViews>
   <sheets>
     <sheet name="변수명명" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t>번호</t>
   </si>
@@ -133,14 +133,6 @@
     <t>wdate</t>
   </si>
   <si>
-    <t>탐색</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>home</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -169,14 +161,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>팔로우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>follow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,66 +216,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>팔로우 해제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>unfollow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>차단</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>차단 해제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>block</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>unblock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>프로필 뷰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>목록 뷰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>디테일 뷰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>profile view</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>list view</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail view</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>profileView</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>listView</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailView</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>항목</t>
   </si>
   <si>
@@ -403,18 +339,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwordSearch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>password search</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>pwCheck</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -435,22 +359,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>닉네임</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>nickname</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nick</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -463,25 +375,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>팔로워</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>follower</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔로잉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>following</t>
-  </si>
-  <si>
-    <t>following</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>로그아웃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -590,11 +483,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> favorite</t>
+    <t>게시글 블로그 삭제</t>
+  </si>
+  <si>
+    <t>게시글,블로그보기</t>
+  </si>
+  <si>
+    <t>게시판목록</t>
+  </si>
+  <si>
+    <t>게시글목록</t>
+  </si>
+  <si>
+    <t>폴더</t>
+  </si>
+  <si>
+    <t>회원정보보기</t>
+  </si>
+  <si>
+    <t>회원정보수정</t>
+  </si>
+  <si>
+    <t>언급</t>
+  </si>
+  <si>
+    <t>사원목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글,블로그 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴여부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원등록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직책</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 보여주는 여부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그주인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 리스트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1066,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296AC885-3EDE-421A-98B9-B19C0A01A2F9}">
-  <dimension ref="B2:F50"/>
+  <dimension ref="B2:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1081,7 +1054,7 @@
     <col min="5" max="5" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1110,49 +1083,49 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1166,217 +1139,211 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" t="s">
+        <v>148</v>
+      </c>
+      <c r="R14" t="s">
+        <v>147</v>
+      </c>
+      <c r="T14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="K16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="K17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="K18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="K19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="K21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="K22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1384,13 +1351,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="K23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1398,13 +1368,16 @@
         <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="K24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1417,22 +1390,28 @@
       <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -1445,25 +1424,31 @@
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -1476,8 +1461,11 @@
       <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -1490,8 +1478,11 @@
       <c r="E30" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -1502,10 +1493,10 @@
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -1516,7 +1507,7 @@
         <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
@@ -1524,69 +1515,57 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -1594,13 +1573,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
@@ -1608,13 +1587,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
@@ -1622,13 +1601,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
@@ -1636,13 +1615,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
@@ -1650,13 +1629,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
@@ -1678,13 +1657,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
@@ -1692,13 +1671,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
@@ -1706,13 +1685,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
@@ -1755,7 +1734,7 @@
         <v>26</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="F49" s="8"/>
     </row>
@@ -1763,19 +1742,14 @@
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1797,143 +1771,143 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="11" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="11" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="11" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="11" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="5" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
